--- a/teste_2.xlsx
+++ b/teste_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\afs\Areas\Tesouraria-Corporativa\Compartilhado\Ruth Menezes\DORC\tesouraria_corporativa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7269C573-9C6B-4EB5-9680-22E3D9768F7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9DF561-718F-478B-8CCE-BBE57B7C571E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="45" yWindow="-16320" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="pub_740" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="40">
   <si>
     <t>Agrupador</t>
   </si>
@@ -87,9 +87,6 @@
     <t>__publication_id</t>
   </si>
   <si>
-    <t>2021-10-28T00:00:00</t>
-  </si>
-  <si>
     <t>CDB</t>
   </si>
   <si>
@@ -99,46 +96,58 @@
     <t>N</t>
   </si>
   <si>
-    <t>2021-11-29T00:00:00</t>
-  </si>
-  <si>
-    <t>2021-12-27T00:00:00</t>
-  </si>
-  <si>
-    <t>2022-01-26T00:00:00</t>
-  </si>
-  <si>
-    <t>2022-04-29T00:00:00</t>
-  </si>
-  <si>
-    <t>2022-07-28T00:00:00</t>
-  </si>
-  <si>
-    <t>2022-10-24T00:00:00</t>
-  </si>
-  <si>
     <t>COMPROMISSADA</t>
   </si>
   <si>
     <t>LCA</t>
   </si>
   <si>
-    <t>2023-05-02T00:00:00</t>
-  </si>
-  <si>
-    <t>2023-10-30T00:00:00</t>
-  </si>
-  <si>
-    <t>2024-10-28T00:00:00</t>
-  </si>
-  <si>
-    <t>2025-10-28T00:00:00</t>
-  </si>
-  <si>
-    <t>2026-10-27T00:00:00</t>
-  </si>
-  <si>
     <t>LF</t>
+  </si>
+  <si>
+    <t>2021-11-30T00:00:00</t>
+  </si>
+  <si>
+    <t>2021-12-30T00:00:00</t>
+  </si>
+  <si>
+    <t>2022-01-31T00:00:00</t>
+  </si>
+  <si>
+    <t>2022-03-02T00:00:00</t>
+  </si>
+  <si>
+    <t>2022-06-01T00:00:00</t>
+  </si>
+  <si>
+    <t>2022-08-30T00:00:00</t>
+  </si>
+  <si>
+    <t>2022-11-28T00:00:00</t>
+  </si>
+  <si>
+    <t>IPCA</t>
+  </si>
+  <si>
+    <t>2023-11-29T00:00:00</t>
+  </si>
+  <si>
+    <t>2024-11-29T00:00:00</t>
+  </si>
+  <si>
+    <t>2025-12-01T00:00:00</t>
+  </si>
+  <si>
+    <t>2023-06-01T00:00:00</t>
+  </si>
+  <si>
+    <t>2023-11-30T00:00:00</t>
+  </si>
+  <si>
+    <t>2024-12-02T00:00:00</t>
+  </si>
+  <si>
+    <t>2026-11-30T00:00:00</t>
   </si>
   <si>
     <t>Data Referência</t>
@@ -462,10 +471,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="O8" sqref="O8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -492,7 +501,7 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -510,7 +519,7 @@
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H1" t="s">
         <v>5</v>
@@ -551,31 +560,34 @@
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>6.1499999999999999E-2</v>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="G2">
         <v>0.97</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
       </c>
       <c r="M2" t="b">
         <v>1</v>
@@ -584,13 +596,13 @@
         <v>1</v>
       </c>
       <c r="O2">
-        <v>20211028</v>
+        <v>20211130</v>
       </c>
       <c r="P2">
-        <v>20211028</v>
+        <v>20211130</v>
       </c>
       <c r="Q2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S2">
         <v>740</v>
@@ -598,38 +610,41 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>7.6447941796932997E-2</v>
+        <v>8.6811569613929995E-2</v>
       </c>
       <c r="G3">
         <v>0.99</v>
       </c>
       <c r="H3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I3" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J3">
-        <v>7.2909717826034601E-2</v>
+        <v>7.6899999999999996E-2</v>
       </c>
       <c r="K3">
         <v>-5.0000000000000001E-4</v>
       </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
       <c r="M3" t="b">
         <v>1</v>
       </c>
@@ -637,13 +652,13 @@
         <v>1</v>
       </c>
       <c r="O3">
-        <v>20211028</v>
+        <v>20211130</v>
       </c>
       <c r="P3">
-        <v>20211028</v>
+        <v>20211130</v>
       </c>
       <c r="Q3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S3">
         <v>740</v>
@@ -651,38 +666,41 @@
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E4">
         <v>2</v>
       </c>
       <c r="F4">
-        <v>8.2232784513771404E-2</v>
+        <v>9.5365366823512807E-2</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="J4">
-        <v>7.9232784513771401E-2</v>
+        <v>7.9799999999999996E-2</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
       <c r="M4" t="b">
         <v>1</v>
       </c>
@@ -690,13 +708,13 @@
         <v>1</v>
       </c>
       <c r="O4">
-        <v>20211028</v>
+        <v>20211130</v>
       </c>
       <c r="P4">
-        <v>20211028</v>
+        <v>20211130</v>
       </c>
       <c r="Q4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S4">
         <v>740</v>
@@ -704,38 +722,41 @@
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5">
         <v>3</v>
       </c>
       <c r="F5">
-        <v>8.9343917923393898E-2</v>
+        <v>9.8322147026248294E-2</v>
       </c>
       <c r="G5">
         <v>1.01</v>
       </c>
       <c r="H5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="J5">
-        <v>8.6888589882355594E-2</v>
+        <v>8.5400000000000004E-2</v>
       </c>
       <c r="K5">
         <v>5.0000000000000001E-4</v>
       </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
       <c r="M5" t="b">
         <v>1</v>
       </c>
@@ -743,13 +764,13 @@
         <v>1</v>
       </c>
       <c r="O5">
-        <v>20211028</v>
+        <v>20211130</v>
       </c>
       <c r="P5">
-        <v>20211028</v>
+        <v>20211130</v>
       </c>
       <c r="Q5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S5">
         <v>740</v>
@@ -757,38 +778,41 @@
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E6">
         <v>6</v>
       </c>
       <c r="F6">
-        <v>0.100325303718936</v>
+        <v>0.108595723120823</v>
       </c>
       <c r="G6">
         <v>1.02</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I6" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J6">
-        <v>9.9525954326373706E-2</v>
+        <v>0.1003</v>
       </c>
       <c r="K6">
         <v>2E-3</v>
       </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
       <c r="M6" t="b">
         <v>1</v>
       </c>
@@ -796,13 +820,13 @@
         <v>1</v>
       </c>
       <c r="O6">
-        <v>20211028</v>
+        <v>20211130</v>
       </c>
       <c r="P6">
-        <v>20211028</v>
+        <v>20211130</v>
       </c>
       <c r="Q6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S6">
         <v>740</v>
@@ -810,38 +834,41 @@
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7">
         <v>9</v>
       </c>
       <c r="F7">
-        <v>0.10832977365514999</v>
+        <v>0.114760159520733</v>
       </c>
       <c r="G7">
         <v>1.02</v>
       </c>
       <c r="H7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J7">
-        <v>0.108100598089288</v>
+        <v>0.1076</v>
       </c>
       <c r="K7">
         <v>2.5000000000000001E-3</v>
       </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
       <c r="M7" t="b">
         <v>1</v>
       </c>
@@ -849,13 +876,13 @@
         <v>1</v>
       </c>
       <c r="O7">
-        <v>20211028</v>
+        <v>20211130</v>
       </c>
       <c r="P7">
-        <v>20211028</v>
+        <v>20211130</v>
       </c>
       <c r="Q7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S7">
         <v>740</v>
@@ -863,38 +890,41 @@
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E8">
         <v>12</v>
       </c>
       <c r="F8">
-        <v>0.11263463437936801</v>
+        <v>0.118046549731376</v>
       </c>
       <c r="G8">
         <v>1.03</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="J8">
-        <v>0.112972538282506</v>
+        <v>0.111</v>
       </c>
       <c r="K8">
         <v>3.0000000000000001E-3</v>
       </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
       <c r="M8" t="b">
         <v>1</v>
       </c>
@@ -902,13 +932,13 @@
         <v>1</v>
       </c>
       <c r="O8">
-        <v>20211028</v>
+        <v>20211130</v>
       </c>
       <c r="P8">
-        <v>20211028</v>
+        <v>20211130</v>
       </c>
       <c r="Q8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S8">
         <v>740</v>
@@ -916,28 +946,28 @@
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="H9" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I9" t="s">
-        <v>17</v>
+        <v>31</v>
+      </c>
+      <c r="L9">
+        <v>4.3776640541882003E-2</v>
       </c>
       <c r="M9" t="b">
         <v>1</v>
@@ -946,13 +976,13 @@
         <v>1</v>
       </c>
       <c r="O9">
-        <v>20211028</v>
+        <v>20211130</v>
       </c>
       <c r="P9">
-        <v>20211028</v>
+        <v>20211130</v>
       </c>
       <c r="Q9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S9">
         <v>740</v>
@@ -960,46 +990,43 @@
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C10" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>6.1499999999999999E-2</v>
-      </c>
-      <c r="G10">
-        <v>0.97</v>
+        <v>36</v>
       </c>
       <c r="H10" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>32</v>
+      </c>
+      <c r="L10">
+        <v>4.4449430897712798E-2</v>
       </c>
       <c r="M10" t="b">
         <v>1</v>
       </c>
       <c r="N10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10">
-        <v>20211028</v>
+        <v>20211130</v>
       </c>
       <c r="P10">
-        <v>20211028</v>
+        <v>20211130</v>
       </c>
       <c r="Q10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S10">
         <v>740</v>
@@ -1007,52 +1034,43 @@
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="E11">
-        <v>3</v>
-      </c>
-      <c r="F11">
-        <v>8.9343917923393898E-2</v>
-      </c>
-      <c r="G11">
-        <v>0.98</v>
+        <v>48</v>
       </c>
       <c r="H11" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="I11" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11">
-        <v>8.4274164479339594E-2</v>
-      </c>
-      <c r="K11">
-        <v>-1.9E-3</v>
+        <v>33</v>
+      </c>
+      <c r="L11">
+        <v>4.4332829334438301E-2</v>
       </c>
       <c r="M11" t="b">
         <v>1</v>
       </c>
       <c r="N11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11">
-        <v>20211028</v>
+        <v>20211130</v>
       </c>
       <c r="P11">
-        <v>20211028</v>
+        <v>20211130</v>
       </c>
       <c r="Q11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S11">
         <v>740</v>
@@ -1060,52 +1078,46 @@
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B12" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D12" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="E12">
-        <v>6</v>
-      </c>
-      <c r="F12">
-        <v>0.100325303718936</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12">
-        <v>9.6224978415216794E-2</v>
-      </c>
-      <c r="K12">
-        <v>-1E-3</v>
+        <v>23</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
       </c>
       <c r="M12" t="b">
         <v>1</v>
       </c>
       <c r="N12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>20211028</v>
+        <v>20211130</v>
       </c>
       <c r="P12">
-        <v>20211028</v>
+        <v>20211130</v>
       </c>
       <c r="Q12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S12">
         <v>740</v>
@@ -1113,52 +1125,49 @@
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D13" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E13">
-        <v>84</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>0.11263463437936801</v>
+        <v>7.6499999999999999E-2</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="H13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I13" t="s">
-        <v>26</v>
-      </c>
-      <c r="J13">
-        <v>0.109634634379368</v>
-      </c>
-      <c r="K13">
+        <v>23</v>
+      </c>
+      <c r="L13">
         <v>0</v>
       </c>
       <c r="M13" t="b">
         <v>1</v>
       </c>
       <c r="N13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>20211028</v>
+        <v>20211130</v>
       </c>
       <c r="P13">
-        <v>20211028</v>
+        <v>20211130</v>
       </c>
       <c r="Q13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S13">
         <v>740</v>
@@ -1166,52 +1175,55 @@
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C14" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E14">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.117058570149338</v>
+        <v>9.4900000000000206E-2</v>
       </c>
       <c r="G14">
-        <v>1.01</v>
+        <v>0.97</v>
       </c>
       <c r="H14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="J14">
-        <v>0.11473415800456201</v>
+        <v>8.2199999999999995E-2</v>
       </c>
       <c r="K14">
-        <v>1.5E-3</v>
+        <v>-2.5000000000000001E-3</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
       </c>
       <c r="M14" t="b">
         <v>1</v>
       </c>
       <c r="N14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>20211028</v>
+        <v>20211130</v>
       </c>
       <c r="P14">
-        <v>20211028</v>
+        <v>20211130</v>
       </c>
       <c r="Q14" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S14">
         <v>740</v>
@@ -1219,52 +1231,55 @@
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D15" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="F15">
-        <v>0.118591873914995</v>
+        <v>0.108075</v>
       </c>
       <c r="G15">
-        <v>1.02</v>
+        <v>0.98</v>
       </c>
       <c r="H15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J15">
-        <v>0.117388353599782</v>
+        <v>9.5299999999999996E-2</v>
       </c>
       <c r="K15">
-        <v>2.5000000000000001E-3</v>
+        <v>-2.5000000000000001E-3</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
       </c>
       <c r="M15" t="b">
         <v>1</v>
       </c>
       <c r="N15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>20211028</v>
+        <v>20211130</v>
       </c>
       <c r="P15">
-        <v>20211028</v>
+        <v>20211130</v>
       </c>
       <c r="Q15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S15">
         <v>740</v>
@@ -1272,37 +1287,40 @@
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D16" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E16">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F16">
-        <v>0.11932321125909499</v>
+        <v>0.117628973093064</v>
       </c>
       <c r="G16">
-        <v>1.03</v>
+        <v>0.98</v>
       </c>
       <c r="H16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="J16">
-        <v>0.118681180892872</v>
+        <v>0.10539999999999999</v>
       </c>
       <c r="K16">
-        <v>3.0000000000000001E-3</v>
+        <v>-2E-3</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
       </c>
       <c r="M16" t="b">
         <v>1</v>
@@ -1311,13 +1329,13 @@
         <v>1</v>
       </c>
       <c r="O16">
-        <v>20211028</v>
+        <v>20211130</v>
       </c>
       <c r="P16">
-        <v>20211028</v>
+        <v>20211130</v>
       </c>
       <c r="Q16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S16">
         <v>740</v>
@@ -1325,37 +1343,40 @@
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D17" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E17">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="F17">
-        <v>0.119403548512916</v>
+        <v>0.118825556553612</v>
       </c>
       <c r="G17">
-        <v>1.03</v>
+        <v>0.99</v>
       </c>
       <c r="H17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I17" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="J17">
-        <v>0.11732146093271199</v>
+        <v>0.1071</v>
       </c>
       <c r="K17">
-        <v>3.5000000000000001E-3</v>
+        <v>-1.5E-3</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
       </c>
       <c r="M17" t="b">
         <v>1</v>
@@ -1364,13 +1385,13 @@
         <v>1</v>
       </c>
       <c r="O17">
-        <v>20211028</v>
+        <v>20211130</v>
       </c>
       <c r="P17">
-        <v>20211028</v>
+        <v>20211130</v>
       </c>
       <c r="Q17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S17">
         <v>740</v>
@@ -1378,37 +1399,40 @@
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B18" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="C18" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D18" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="E18">
-        <v>60</v>
+        <v>24</v>
       </c>
       <c r="F18">
-        <v>0.120345827146412</v>
+        <v>0.117273498601597</v>
       </c>
       <c r="G18">
-        <v>1.04</v>
+        <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="J18">
-        <v>0.118827210454997</v>
+        <v>0.10730000000000001</v>
       </c>
       <c r="K18">
-        <v>4.0000000000000001E-3</v>
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
       </c>
       <c r="M18" t="b">
         <v>1</v>
@@ -1417,13 +1441,13 @@
         <v>1</v>
       </c>
       <c r="O18">
-        <v>20211028</v>
+        <v>20211130</v>
       </c>
       <c r="P18">
-        <v>20211028</v>
+        <v>20211130</v>
       </c>
       <c r="Q18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S18">
         <v>740</v>
@@ -1431,37 +1455,40 @@
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B19" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C19" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E19">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="F19">
-        <v>0.118591873914995</v>
+        <v>0.115802974596683</v>
       </c>
       <c r="G19">
-        <v>1E-4</v>
+        <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I19" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="J19">
-        <v>0.12354060890631501</v>
+        <v>0.10639999999999999</v>
       </c>
       <c r="K19">
-        <v>8.0000000000000002E-3</v>
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
       </c>
       <c r="M19" t="b">
         <v>1</v>
@@ -1470,13 +1497,13 @@
         <v>1</v>
       </c>
       <c r="O19">
-        <v>20211028</v>
+        <v>20211130</v>
       </c>
       <c r="P19">
-        <v>20211028</v>
+        <v>20211130</v>
       </c>
       <c r="Q19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S19">
         <v>740</v>
@@ -1484,37 +1511,40 @@
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E20">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="F20">
-        <v>0.11932321125909499</v>
+        <v>0.115056719728483</v>
       </c>
       <c r="G20">
-        <v>1.07510465163615</v>
+        <v>1.01</v>
       </c>
       <c r="H20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I20" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="J20">
-        <v>0.124837458554797</v>
+        <v>0.1062</v>
       </c>
       <c r="K20">
-        <v>8.5000000000000006E-3</v>
+        <v>1E-3</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
       </c>
       <c r="M20" t="b">
         <v>1</v>
@@ -1523,13 +1553,13 @@
         <v>1</v>
       </c>
       <c r="O20">
-        <v>20211028</v>
+        <v>20211130</v>
       </c>
       <c r="P20">
-        <v>20211028</v>
+        <v>20211130</v>
       </c>
       <c r="Q20" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S20">
         <v>740</v>
@@ -1537,37 +1567,40 @@
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C21" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="F21">
-        <v>0.119403548512916</v>
+        <v>0.11533347677433101</v>
       </c>
       <c r="G21">
-        <v>1.07945234088561</v>
+        <v>1.01</v>
       </c>
       <c r="H21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I21" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="J21">
-        <v>0.123478180449532</v>
+        <v>0.107</v>
       </c>
       <c r="K21">
-        <v>8.9999999999999993E-3</v>
+        <v>1.5E-3</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
       </c>
       <c r="M21" t="b">
         <v>1</v>
@@ -1576,13 +1609,13 @@
         <v>1</v>
       </c>
       <c r="O21">
-        <v>20211028</v>
+        <v>20211130</v>
       </c>
       <c r="P21">
-        <v>20211028</v>
+        <v>20211130</v>
       </c>
       <c r="Q21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="S21">
         <v>740</v>
@@ -1590,54 +1623,225 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="C22" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D22" t="s">
-        <v>34</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>84</v>
+        <v>24</v>
       </c>
       <c r="F22">
-        <v>0.120345827146412</v>
+        <v>0.117273498601597</v>
       </c>
       <c r="G22">
-        <v>1.0832249526106901</v>
+        <v>1.0717789983213499</v>
       </c>
       <c r="H22" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I22" t="s">
+        <v>35</v>
+      </c>
+      <c r="J22">
+        <v>0.1162</v>
+      </c>
+      <c r="K22">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22" t="b">
+        <v>1</v>
+      </c>
+      <c r="N22" t="b">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>20211130</v>
+      </c>
+      <c r="P22">
+        <v>20211130</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>19</v>
+      </c>
+      <c r="S22">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>36</v>
+      </c>
+      <c r="F23">
+        <v>0.115802974596683</v>
+      </c>
+      <c r="G23">
+        <v>1.0773662217783699</v>
+      </c>
+      <c r="H23" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" t="s">
+        <v>36</v>
+      </c>
+      <c r="J23">
+        <v>0.1153</v>
+      </c>
+      <c r="K23">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23" t="b">
+        <v>1</v>
+      </c>
+      <c r="N23" t="b">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>20211130</v>
+      </c>
+      <c r="P23">
+        <v>20211130</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>19</v>
+      </c>
+      <c r="S23">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>23</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>48</v>
+      </c>
+      <c r="F24">
+        <v>0.115056719728483</v>
+      </c>
+      <c r="G24">
+        <v>1.082353629187</v>
+      </c>
+      <c r="H24" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" t="s">
         <v>33</v>
       </c>
-      <c r="J22">
-        <v>0.124989112504303</v>
-      </c>
-      <c r="K22">
+      <c r="J24">
+        <v>0.11509999999999999</v>
+      </c>
+      <c r="K24">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24" t="b">
+        <v>1</v>
+      </c>
+      <c r="N24" t="b">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>20211130</v>
+      </c>
+      <c r="P24">
+        <v>20211130</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>19</v>
+      </c>
+      <c r="S24">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25">
+        <v>60</v>
+      </c>
+      <c r="F25">
+        <v>0.11533347677433101</v>
+      </c>
+      <c r="G25">
+        <v>1.08640581408095</v>
+      </c>
+      <c r="H25" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" t="s">
+        <v>37</v>
+      </c>
+      <c r="J25">
+        <v>0.1159</v>
+      </c>
+      <c r="K25">
         <v>9.4999999999999998E-3</v>
       </c>
-      <c r="M22" t="b">
-        <v>1</v>
-      </c>
-      <c r="N22" t="b">
-        <v>1</v>
-      </c>
-      <c r="O22">
-        <v>20211028</v>
-      </c>
-      <c r="P22">
-        <v>20211028</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>20</v>
-      </c>
-      <c r="S22">
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25" t="b">
+        <v>1</v>
+      </c>
+      <c r="N25" t="b">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>20211130</v>
+      </c>
+      <c r="P25">
+        <v>20211130</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>19</v>
+      </c>
+      <c r="S25">
         <v>740</v>
       </c>
     </row>
